--- a/impacts_results.xlsx
+++ b/impacts_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +518,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>01ecbf06-8b73-1977-af65-00005296a89e.xml</t>
+          <t>vinyl chloride monomer</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -573,62 +573,62 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>090f9f55-f67e-9063-a5bf-000022b1107c.xml</t>
+          <t>polyvinyl chloride</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.559511201717199</v>
+        <v>4.553828146811169</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.586707480246804e-09</v>
+        <v>5.80615490917307e-09</v>
       </c>
       <c r="E3" t="n">
-        <v>2.858648928580668e-07</v>
+        <v>5.279415223612786e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>3.929399600000001e-08</v>
+        <v>6.094945600000001e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9168537212113567</v>
+        <v>1.635601310847112</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001009794517738579</v>
+        <v>0.001992021757073414</v>
       </c>
       <c r="I3" t="n">
-        <v>0.013644184</v>
+        <v>0.022802088</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01030185</v>
+        <v>0.0112023</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.97173e-06</v>
+        <v>-6.69879e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>9.073385336439999e-05</v>
+        <v>0.000110473389781</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7.648789516689061</v>
+        <v>14.86968117579657</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-9.5726e-06</v>
+        <v>-1.66303e-05</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.818772465854359e-07</v>
+        <v>7.648193400495356e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0a149b76-27a3-4209-9b00-0207ca1a44a2.xml</t>
+          <t>Polyvinyl chloride, from suspension process, S-PVC</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -683,62 +683,62 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>113089b0-a343-c0d8-c684-000059d236c1.xml</t>
+          <t>Propylene</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.99431694509397</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2.219447428926267e-09</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.42076629503211e-07</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.165546e-08</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7187475896357551</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009822272393348345</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009157904000000001</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0009004499999999999</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.72706e-06</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1.97395364166e-05</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>7.220891659107517</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-7.0577e-06</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.829420934640997e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>1771a376-4ca8-4652-a359-38ad04772ac4.xml</t>
+          <t>Triethylene glycol</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -793,7 +793,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>1f281da2-d1df-0ee9-cf13-00006a95d416.xml</t>
+          <t>p-Xylene</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -848,7 +848,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2412e321-a7de-4b86-5556-000004186587.xml</t>
+          <t>o-Xylene</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -903,7 +903,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>24135780-c5bf-5207-a875-00005df3cfc8.xml</t>
+          <t>Diethylene glycol</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -958,7 +958,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>284fe5aa-2f4b-f833-d1cf-000053710d0c.xml</t>
+          <t>Chlorine, chlor-alkali production mix</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1013,7 +1013,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2a4e2c29-db3c-46ea-9194-3476473b5d81.xml</t>
+          <t>Hydrogen, chlor-alkali production mix</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1068,7 +1068,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>34ae2f70-3322-4016-acb0-45eeba36392d.xml</t>
+          <t>Polyamide 6.6 (PA6.6)</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1123,7 +1123,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>35d4884b-e15d-453c-8f61-5090e273678a.xml</t>
+          <t>Ethylene oxide</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1178,117 +1178,117 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>361a30a2-2521-15e9-c613-000071c7496a.xml</t>
+          <t>polyethylene, LLDPE, granulate, at plant</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.794421098627256</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3.732793056857044e-10</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>4.755840054931944e-08</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.03683335e-08</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.3060068851307242</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.001118930900804431</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.008829935803999999</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.0002161377</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-2.53974e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.23750484952e-05</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>12.33796513145071</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-3.5903e-06</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>5.370459700693961e-07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>367fd8e9-fd6a-f5f1-6fab-0000626e5b98.xml</t>
+          <t>Benzene</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.794421098627256</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>3.732793056857044e-10</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>4.755840054931944e-08</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2.03683335e-08</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3060068851307242</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001118930900804431</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.008829935803999999</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0002161377</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-2.53974e-06</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.23750484952e-05</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>12.33796513145071</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>-3.5903e-06</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.370459700693961e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>38f29fc1-dc9a-4835-b8a4-ed4e1ec20ff7.xml</t>
+          <t>Polycarbonate</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1343,7 +1343,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>3fd14625-40ec-4341-aa1e-3cdbc8e0e8ac.xml</t>
+          <t>Styrene acrylonitrile (SAN), a-Methyl styrene acrylonitrile (AMSAN)</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1398,7 +1398,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>420d5b29-ea2a-41d8-9fcf-e02aae3ad52f.xml</t>
+          <t>Short Chain Polyether Polyols (rigid)</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1453,7 +1453,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>44f6bd91-5112-44b4-a674-d4ba298c1259.xml</t>
+          <t>Sodium hypochlorite (NaOCl, 175 g Cl2/l)</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1508,117 +1508,117 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>4af5cff0-ac7d-4bee-8d5c-6a31e6e714eb.xml</t>
+          <t>polypropylene, PP, granulate, at plant</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.631117698924495</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2.693654454892305e-11</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>4.709917148772102e-08</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.06171245e-08</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.3249788182068864</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.0009550422865493971</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.008934237459999999</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.0002291355</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-2.76822e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.2530026997e-05</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>9.951252060573614</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-3.197e-06</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.405871425162712e-07</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>5070854e-e2fb-a816-c4ba-00000bb60d3d.xml</t>
+          <t>Bisphenol A</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.631117698924495</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.693654454892305e-11</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>4.709917148772102e-08</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2.06171245e-08</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3249788182068864</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009550422865493971</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.008934237459999999</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0002291355</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>-2.76822e-06</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.2530026997e-05</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>9.951252060573614</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>-3.197e-06</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.405871425162712e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>5205f6cb-4774-422b-bf2d-aa32dd2278df.xml</t>
+          <t>Ethylene glycol</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1673,7 +1673,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>58aa0dd1-04b0-6918-96cc-000027963c0f.xml</t>
+          <t>Terephthalic acid, purified</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1728,7 +1728,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>5e3636e6-7674-48d7-a57d-ceb94c891e63.xml</t>
+          <t>Polypropylene, PP, granulate</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1783,7 +1783,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>5f5bdf35-a41c-4c95-8737-943b5ee4f234.xml</t>
+          <t>Polyethylene, LDPE, granulate</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1838,117 +1838,117 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>63e805c4-ce60-4caa-bd2a-6cc779c01208.xml</t>
+          <t>polyethylene, HDPE, granulate, at plant</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.800324628706166</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.60128218351143e-11</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>4.88544378493495e-08</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.9844018e-08</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.3776233937712957</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.00138053938142893</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.008568671680000001</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.000309609</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-2.70249e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.3772907278e-05</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>12.44418037034634</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-3.5957e-06</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>2.025078240048047e-07</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>652939ff-9892-740d-68f7-0000208d2e34.xml</t>
+          <t>Sodium hydroxide, chlor-alkali production mix</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.800324628706166</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2.60128218351143e-11</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>4.88544378493495e-08</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1.9844018e-08</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3776233937712957</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00138053938142893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.008568671680000001</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.000309609</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>-2.70249e-06</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1.3772907278e-05</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>12.44418037034634</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>-3.5957e-06</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.025078240048047e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>675887af-fe49-4b36-825c-10098afdd652.xml</t>
+          <t>General purpose polystyrene (GPPS)</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2003,7 +2003,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>6ed5e0f8-3914-4533-9beb-c93222bdb2cb.xml</t>
+          <t>Polyethylene, HDPE, granulate</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2058,7 +2058,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>6ee18ba1-66e9-4573-b03d-3d84e92d7bda.xml</t>
+          <t>Vinyl chloride monomer</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2113,117 +2113,117 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>7029c674-10e4-4df3-9f8e-301f4a355e6d.xml</t>
+          <t>polyethylene, LDPE, granulate, at plant</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1.872325742302629</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3.074075562353774e-10</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>5.877789953411923e-08</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.95576545e-08</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.5932712651185076</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.002569188208224767</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.0084612161</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.0002579175</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-2.7552e-06</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.54893496688e-05</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>16.17193722109967</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-5.4875e-06</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.524842866781199e-07</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>7770c27b-648e-c089-58fb-00005d4910b8.xml</t>
+          <t>Pyrolysis gasoline</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.872325742302629</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>3.074075562353774e-10</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>5.877789953411923e-08</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.95576545e-08</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5932712651185076</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.002569188208224767</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0084612161</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0002579175</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>-2.7552e-06</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1.54893496688e-05</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>16.17193722109967</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-5.4875e-06</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.524842866781199e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>7bef11c6-93e6-4ff3-a423-00f3e500747d.xml</t>
+          <t>Toluene diisocyanate (TDI)</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2278,7 +2278,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>84851553-b095-4e1c-a8b1-b100ce84b939.xml</t>
+          <t>Acrylonitrile butadiene styrene (ABS)</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2333,7 +2333,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>864a6be9-1a0a-44fb-860a-199bdb66dd60.xml</t>
+          <t>Toluene</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2388,7 +2388,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>8bc19bf7-47b5-43b3-a7f8-2634b8f2fde5.xml</t>
+          <t>Long Chain Polyether Polyols mix</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2443,7 +2443,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ac9f5b45-0d05-4f72-8fe4-00054d78cb77.xml</t>
+          <t>High impact polystyrene (HIPS)</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2498,7 +2498,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>acf81ba2-1ebb-4150-9b26-06d8e2c6be10.xml</t>
+          <t>Sodium chloride, for chlor-alkali electrolysis</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2553,7 +2553,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>aed8d428-25bc-4b69-8722-d3e26975dc5b.xml</t>
+          <t>Expandable polystyrene (EPS), white and grey</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2608,7 +2608,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>b0e14090-6825-4752-aef2-af12fe2e5708.xml</t>
+          <t>Ethylene</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2663,7 +2663,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>b4cc2a4e-740f-4f26-a2fb-71cf32e12452.xml</t>
+          <t>Polyethylene, LLDPE, granulate</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2718,7 +2718,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>b60b30bf-991d-41b8-a295-5d0b2e5f2bb5.xml</t>
+          <t>Polamide 6 (PA6)</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2773,7 +2773,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>b748263b-2419-415b-98a1-cd78f7e6fc77.xml</t>
+          <t>Polycarbonate granulate (PC)</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2828,7 +2828,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>b8c432bd-e016-4226-94db-91074f2cef9f.xml</t>
+          <t>Polyvinyl chloride, from emulsion process, E-PVC</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2883,7 +2883,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>c3a53e26-b87f-4d41-bffa-785fc0ca4935.xml</t>
+          <t>PET, bottle grade, at plant</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2938,7 +2938,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>c4161063-3fde-4540-ad1c-f2da1828bf7b.xml</t>
+          <t>Aromatic Polyester Polyols (APP) production mix</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2993,7 +2993,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>d18f7e4e-aef7-470c-a910-5225bcd76d12.xml</t>
+          <t>Methylenediphenyl diisocyanate ( (p)MDI)</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3048,7 +3048,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>d24d3589-f97b-404c-80af-ec4fd80ca9d9.xml</t>
+          <t>Phenol (Database Update 2016 version)</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3103,7 +3103,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>d2fe899e-7fc0-49d3-a7cc-bbf8cad5439a.xml</t>
+          <t>Polyoxymethylene (POM)</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3158,7 +3158,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>d7679212-da86-4656-b9d7-24423e64a68d.xml</t>
+          <t>Xylenes, mixed</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3213,7 +3213,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>da4d2a7b-b28e-4d80-bf92-6b17c3c00cfb.xml</t>
+          <t>Butadiene</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3262,171 +3262,6 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>e3b65970-3420-43e6-8265-131ef3485c27.xml</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>f3ff31e4-9a54-4c5f-b148-1c1630d0ff17.xml</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>ffa47ff7-ad60-4c90-83a2-bdfb706a8bf6.xml</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="n">
         <v>0</v>
       </c>
     </row>

--- a/impacts_results.xlsx
+++ b/impacts_results.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.706540371834963</v>
+        <v>1.169293505141837</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.361764157e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>2.057531359577793e-09</v>
+        <v>4.62924663284017e-10</v>
       </c>
       <c r="E2" t="n">
-        <v>2.302597717621807e-07</v>
+        <v>3.879078991542001e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8740939e-08</v>
+        <v>2.83986369e-08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6048357474310981</v>
+        <v>0.347726377209823</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008571178374821231</v>
+        <v>0.002959814286300981</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00809264396</v>
+        <v>0.00452297298</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000291573</v>
+        <v>0.0105917325</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.911147e-06</v>
+        <v>4.570592460000001e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>1.18318180686e-05</v>
+        <v>0.0009647052100686</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.716557930457834</v>
+        <v>1.412297471682486</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-6.0252e-06</v>
+        <v>-5.942562700000001e-06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.892694080092231e-07</v>
+        <v>6.61835054360695e-08</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.553828146811169</v>
+        <v>3.119955372495995</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.539764149e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>5.80615490917307e-09</v>
+        <v>1.464985357535881e-09</v>
       </c>
       <c r="E3" t="n">
-        <v>5.279415223612786e-07</v>
+        <v>8.976687958727152e-08</v>
       </c>
       <c r="F3" t="n">
-        <v>6.094945600000001e-08</v>
+        <v>8.356571225142857e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>1.635601310847112</v>
+        <v>0.9448781094894597</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001992021757073414</v>
+        <v>0.007478212858057491</v>
       </c>
       <c r="I3" t="n">
-        <v>0.022802088</v>
+        <v>0.01272602</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0112023</v>
+        <v>0.032701992</v>
       </c>
       <c r="K3" t="n">
-        <v>-6.69879e-06</v>
+        <v>5.449338720000001e-07</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000110473389781</v>
+        <v>0.002547003889781</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>14.86968117579657</v>
+        <v>3.254420380360909</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.66303e-05</v>
+        <v>-1.64027495e-05</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.648193400495356e-07</v>
+        <v>2.70431338581025e-07</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1.366260474273193</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2.374584e-09</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5.613779508564157e-10</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4.200803473965922e-08</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.258169285561905e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.4129700747695813</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.003434301705940986</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.005173451000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.012465981</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-6.1001745e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.001154854925765457</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.1680842277856437</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-52.91310701363911</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>9.302587576229222e-08</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.9876162569904916</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.072665943405732e-10</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>6.609605611536441e-09</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.412385989635734e-08</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.06829291439324904</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.903005677114614</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.00415548838</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.0107446335</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-1.631580678e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.0009934566262558</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.2647164373360513</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-65.95396840612194</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2.112437767353989e-08</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1.346396942963047</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.477498194804077e-10</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>7.499318439038081e-09</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>7.1059542621864e-08</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.4353700119954084</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.003434870401649219</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.004572926268</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.0113130849</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-1.159326588e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.001037657062721</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.192838771209057</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-55.94231062465386</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.907535511098143e-08</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.9799441109501728</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>4.161450099721059e-09</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6.747414651992387e-08</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5.109815446230447e-08</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.03143043406246875</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.00321347941707441</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.006949313515999999</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.0119289513</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-1.46874525e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.0011039959298896</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>337.8134646256306</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-61.9420851917149</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>4.01564191117054e-08</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.9934440083811188</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4.164627258759079e-09</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>6.753927624443796e-08</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>5.185308596297638e-08</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.03143043472852395</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.003250471302972884</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.00707813187</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.01205717175</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-1.460952738e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.0011160555588662</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>337.8166968263774</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-62.23457765560983</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>4.241183012537777e-08</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1.269896632165744</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.393555507995592e-10</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>7.073133706689614e-09</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>6.70224574482004e-08</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.4106324122507697</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.003239719996013505</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.00431321487</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.01067034375</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-1.0934448e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.0009787037284382002</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.1818814849453881</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-52.76342833262949</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1.799142958511898e-08</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.6137807937276533</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4.45752e-10</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>5.360288099156399e-10</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>5.397979161572788e-08</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1.236886581660991e-07</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.3729913464888309</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.001511240553647148</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.00294145754</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.005922202499999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-3.538620960000001e-07</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.0005830398357601521</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.06583815143543117</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-15.18529648188407</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>2.71261811701626e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.5564499955885801</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.52688e-10</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.211044924728122e-10</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>5.31674743849019e-08</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.148556410142895e-07</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.3407650581958448</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.001286952778987969</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.002298622482</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.00513824385</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>7.953082199999998e-08</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.0004913213692606241</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.08658238314627267</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-13.75686170148809</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>2.484058172353045e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>4.881227840898935</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.845030773841409e-08</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1.521791375123035e-07</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>9.763427993676388e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.085858130774554e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>55.90060773112911</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.0008446140076333075</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.001344646892439585</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.006010838757594171</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.005574103031599795</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.0009348843933816136</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>206.7785654994097</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.005621861190721999</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.0003812593381505653</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.365404966762975</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>7.251401956231688e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3.361392671066771e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>6.253472574803659e-08</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.3213906148945969</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.00343138404011888</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.004426355434</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.01109056545</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.298271828e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.0010196753726654</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>41.36910913446562</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-58.74959418435719</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.961541411814593e-08</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.794421098627256</v>
+        <v>1.233096127491735</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.944220467519e-08</v>
       </c>
       <c r="D14" t="n">
-        <v>3.732793056857044e-10</v>
+        <v>9.727856772993583e-11</v>
       </c>
       <c r="E14" t="n">
-        <v>4.755840054931944e-08</v>
+        <v>8.215651794144448e-09</v>
       </c>
       <c r="F14" t="n">
-        <v>2.03683335e-08</v>
+        <v>3.842931421190477e-08</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3060068851307242</v>
+        <v>0.1765799907671901</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001118930900804431</v>
+        <v>0.003644008354958857</v>
       </c>
       <c r="I14" t="n">
-        <v>0.008829935803999999</v>
+        <v>0.005117794401999999</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0002161377</v>
+        <v>0.01257964485</v>
       </c>
       <c r="K14" t="n">
-        <v>-2.53974e-06</v>
+        <v>-1.3621923e-07</v>
       </c>
       <c r="L14" t="n">
-        <v>1.23750484952e-05</v>
+        <v>0.0011504749792952</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>12.33796513145071</v>
+        <v>2.583070921773698</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-3.5903e-06</v>
+        <v>-3.5512709e-06</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.370459700693961e-07</v>
+        <v>1.855493385817267e-07</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1.271785011718156</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.558315387016555e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1.292811875301819e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>5.728183682123493e-08</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.06137315884855159</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.1264360282155315</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.007439633177999999</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.01354385265</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-1.685246934e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.001252469113538</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>528.5802251944071</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-73.02565496447971</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>3.809342161308887e-08</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4.756683756586142</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5.516678629158947e-08</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>5.769930423777754e-09</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-5.383464169659554e-09</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.100184483416054e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.5670031270343233</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.005397708778181218</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.009743255440442938</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.01903521335341556</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>9.723197868201804e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.001718477834109526</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.087126389539285</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-182.720020858655</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-2.444291228418381e-07</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.098659261085067</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.084368276030096e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3.511213445648625e-10</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.184027020114134e-08</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3.600296027359974e-07</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.5962500637215157</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.0009381326724772243</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.006051460294684312</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.00368605972035939</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>4.455700319079829e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>8.109399358135474e-05</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.252684843269611</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-1.53990384035652</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.021385392765796e-08</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1.974221144014434</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1.001335219521956e-18</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-5.428544099189757e-10</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-8.345023406848761e-10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>4.112117089809441e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.176641453850698</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.004249192747472185</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.005338777520944886</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.01867259172552324</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-0.001610649391633985</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.001781681163869046</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>-0.1107725653404811</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>-73.83245184481972</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>-1.496457706469566e-07</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.6380234339578608</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.559688e-10</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.324998487696107e-09</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.492914014898276e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>6.868383940537906e-08</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.354550128754052</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.001783895427190623</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.00314133484</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.007137345</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.95171102e-07</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.0006576145586702479</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.06416708465888453</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-16.04484783531778</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.025621581738185e-08</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.631117698924495</v>
+        <v>1.114346938012073</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.99677488381e-08</v>
       </c>
       <c r="D20" t="n">
-        <v>2.693654454892305e-11</v>
+        <v>4.928546341739532e-11</v>
       </c>
       <c r="E20" t="n">
-        <v>4.709917148772102e-08</v>
+        <v>8.135852843166033e-09</v>
       </c>
       <c r="F20" t="n">
-        <v>2.06171245e-08</v>
+        <v>3.829891745476191e-08</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3249788182068864</v>
+        <v>0.1842421992554065</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009550422865493971</v>
+        <v>0.003433136649936016</v>
       </c>
       <c r="I20" t="n">
-        <v>0.008934237459999999</v>
+        <v>0.00511708223</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0002291355</v>
+        <v>0.01237910775</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.76822e-06</v>
+        <v>5.671230600000009e-08</v>
       </c>
       <c r="L20" t="n">
-        <v>1.2530026997e-05</v>
+        <v>0.001131680268997</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>9.951252060573614</v>
+        <v>2.116490198980451</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-3.197e-06</v>
+        <v>-3.1600724e-06</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.405871425162712e-07</v>
+        <v>5.640513906076943e-08</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>3.177786881101771</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>8.033668168104741e-13</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4.785496957004688e-09</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-1.730254255495798e-08</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>6.757453355704793e-07</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.145729189669992</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.00347067734315336</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.00594809030611677</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.01119440775454566</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2.081529444030248e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.001004123905613377</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.157463602535895</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>-144.5274602440677</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>-1.00005656039218e-07</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.075605075494985</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.180328734085015e-10</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2.189089161924188e-08</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5.676660721573867e-08</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.3477999866862206</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.6327439699569515</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.00365311928</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.009037485</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-9.261329700000001e-07</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.0008289349416972001</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.4770531138578899</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-44.69005075934997</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.523888573220652e-08</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.068115419630787</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.051392e-07</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2.427599742454875e-10</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.014224182461961e-08</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>4.920230660443734e-08</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.1154114644092382</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.003072710826783277</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.00588226268</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.011188368</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.16725329e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.001067824242126518</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-0.4727072425645457</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-50.49879166354542</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>3.910974928991242e-08</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1.114300808057527</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>7.75152e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>9.336085681459333e-11</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>8.77293495837121e-09</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>5.571768723945562e-08</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.1842421992559485</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.003455541983868297</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.00511708223</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.01237910775</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-1.209881694e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.001145218293069453</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>-1.294073042220566</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>-72.76246147881527</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>-3.466857593982944e-08</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.283593626282639</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2.30577719352e-08</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.290151988228195e-08</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.074996005760711e-08</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>5.774158095575658e-08</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>332.957793318523</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.005312199613022089</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.00512853555</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.01336094475</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-7.870972620000002e-07</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.001239240151110784</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2.429594316186229</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-78.045336150428</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>4.819924259502616e-08</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.800324628706166</v>
+        <v>1.230582328525685</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2.06164172715e-08</v>
       </c>
       <c r="D26" t="n">
-        <v>2.60128218351143e-11</v>
+        <v>5.149485349383646e-11</v>
       </c>
       <c r="E26" t="n">
-        <v>4.88544378493495e-08</v>
+        <v>8.402707818285536e-09</v>
       </c>
       <c r="F26" t="n">
-        <v>1.9844018e-08</v>
+        <v>3.857928756857143e-08</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3776233937712957</v>
+        <v>0.2141552778766561</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00138053938142893</v>
+        <v>0.003941565078661165</v>
       </c>
       <c r="I26" t="n">
-        <v>0.008568671680000001</v>
+        <v>0.00505269134</v>
       </c>
       <c r="J26" t="n">
-        <v>0.000309609</v>
+        <v>0.0127328805</v>
       </c>
       <c r="K26" t="n">
-        <v>-2.70249e-06</v>
+        <v>-7.799483999999995e-08</v>
       </c>
       <c r="L26" t="n">
-        <v>1.3772907278e-05</v>
+        <v>0.001161279343278</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>12.44418037034634</v>
+        <v>2.613904486884331</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-3.5957e-06</v>
+        <v>-3.5534186e-06</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.025078240048047e-07</v>
+        <v>7.474557510501536e-08</v>
       </c>
     </row>
     <row r="27">
@@ -1897,52 +1897,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.5876183373158409</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>3.32616e-10</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>5.360722812780947e-10</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>5.420745635333272e-08</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1.205193714869791e-07</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.3623799122047837</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.001398198137292736</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.002508226292</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.0055469361</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>5.348532000000001e-08</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.0005309668925553601</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>0.07269568522980012</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>-14.52573988472294</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>2.577288359865247e-08</v>
       </c>
     </row>
     <row r="28">
@@ -1952,52 +1952,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.586790889749895</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3.588123290976906e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-2.95325145434632e-10</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-9.033546172328321e-08</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3.672325074040495e-07</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.5461090681879356</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.0007002489477391685</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.004197069706363158</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.0007102781935995012</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>4.497790922785356e-05</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.522171725541456e-05</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.4297032734986833</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-75.59399787939725</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-5.374685364600535e-08</v>
       </c>
     </row>
     <row r="29">
@@ -2007,52 +2007,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.230527920793606</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.652856e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.044190567035959e-10</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>8.947603625937933e-09</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6.169599339136001e-08</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.2141552778772773</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.003964710119071976</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.00505269134</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.0127328805</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-1.31464284e-06</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.00117370476503976</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>0.01763319916526959</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>-75.67491116610253</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>6.348366187288745e-08</v>
       </c>
     </row>
     <row r="30">
@@ -2062,52 +2062,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.168310847310857</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1.846992e-09</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1.31614417449528e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>8.944932387416331e-07</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.134078435896697e-07</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.3477263772110388</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.002979471087579782</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.00452297298</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.0105917325</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-4.16876754e-07</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.0009988733892878658</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>45.33735664209181</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>-47.49214678510643</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.008837100704318e-08</v>
       </c>
     </row>
     <row r="31">
@@ -2117,52 +2117,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.872325742302629</v>
+        <v>1.285326868713607</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.244235419352e-07</v>
       </c>
       <c r="D31" t="n">
-        <v>3.074075562353774e-10</v>
+        <v>1.284284645917123e-08</v>
       </c>
       <c r="E31" t="n">
-        <v>5.877789953411923e-08</v>
+        <v>1.010998921866051e-08</v>
       </c>
       <c r="F31" t="n">
-        <v>1.95576545e-08</v>
+        <v>3.946489189857143e-08</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5932712651185076</v>
+        <v>0.3398487595658115</v>
       </c>
       <c r="H31" t="n">
-        <v>0.002569188208224767</v>
+        <v>0.005289482255137571</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0084612161</v>
+        <v>0.00512853555</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0002579175</v>
+        <v>0.01336094475</v>
       </c>
       <c r="K31" t="n">
-        <v>-2.7552e-06</v>
+        <v>4.73448738e-07</v>
       </c>
       <c r="L31" t="n">
-        <v>1.54893496688e-05</v>
+        <v>0.0012228834196688</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>16.17193722109967</v>
+        <v>4.830450240092151</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-5.4875e-06</v>
+        <v>-5.4178407e-06</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.524842866781199e-07</v>
+        <v>6.016920293466959e-08</v>
       </c>
     </row>
     <row r="32">
@@ -2172,52 +2172,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.6998489234694971</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>8.96711475203628e-11</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>5.425082415309975e-09</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>3.733562666347524e-08</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.04055889002061384</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.002422589435467352</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.003551864364</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.008853977699999998</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-1.48109976e-06</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.0008194098817682</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.2207449653283802</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-59.25448763319888</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.901344774819676e-08</v>
       </c>
     </row>
     <row r="33">
@@ -2227,52 +2227,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>2.238390251351573</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2.897012212693468e-19</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-6.293096181685076e-10</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>-2.053339145164177e-08</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>4.907966533189871e-07</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0579617776695802</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.003631520653280599</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.004055882360781992</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.01269943263362826</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-1.380678806954351e-05</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.001143165547353646</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>-0.07403157526454737</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>-72.6743062207576</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>-7.097114781052391e-08</v>
       </c>
     </row>
     <row r="34">
@@ -2282,52 +2282,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2.190572292900853</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>4.049084146647342e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3.273245273788336e-10</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-3.194017423039295e-08</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>6.816048021819701e-07</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.7698504214047682</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.0008901235150300335</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.005791795003482971</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.003941402995419439</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.967655467984804e-05</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.0001876037368736204</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.176928823797014</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-2.16207231337359</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-9.855533610262496e-08</v>
       </c>
     </row>
     <row r="35">
@@ -2337,52 +2337,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.8380641459497741</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.521175929492318e-09</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>9.953170319979492e-09</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>4.747444553036061e-08</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.02789723055544714</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.3628599331662135</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.005768188919999999</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.010494654</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-1.36753071e-06</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.0009733160807392002</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>649.0240297507024</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-60.12900048343669</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>4.441168398121607e-08</v>
       </c>
     </row>
     <row r="36">
@@ -2392,52 +2392,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2.037891626718694</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>2.201493155320678e-09</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-2.326643447885466e-10</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-9.524453587125422e-09</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>4.67580117202848e-07</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1.229857186334936</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.0007016783439520378</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.004911075589830173</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.003684854494948292</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-0.0001853028564267397</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.0001362008915955731</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.7828455900347041</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>-1791187.202141583</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>2.113547201202409e-08</v>
       </c>
     </row>
     <row r="37">
@@ -2447,52 +2447,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1.71801093400524</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>3.664305627742366e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-3.543318415663898e-10</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-1.209952779579727e-07</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>3.678679063366962e-07</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.5600978378954679</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.0007493502562936764</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.004410772510932425</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.0008173889943794812</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.807933087860302e-05</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.860972739804734e-05</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.3717513150944149</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-79.40223125472819</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-7.640128875299639e-08</v>
       </c>
     </row>
     <row r="38">
@@ -2502,52 +2502,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.04142186804368363</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>4.524159213338632e-12</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2.57193565003692e-10</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.626379100960572e-09</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.02019494044432128</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>9.474204315381334e-05</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.0001552031206</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.000373206945</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-7.706702220000001e-09</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>4.956652523248961e-05</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>-0.01891456514268408</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-1.066055513518855</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>7.400310505985816e-10</v>
       </c>
     </row>
     <row r="39">
@@ -2557,52 +2557,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1.681222326798505</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>3.850744183389317e-13</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>3.871585245392246e-10</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>-9.432222240151715e-09</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>4.63384781003231e-07</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.5934893071031379</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.001136072707356104</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.005319377504764703</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.0013175363839845</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>-0.000341049529628619</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>9.964783543243503e-05</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1.621916439999162</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>-1.52710590364824</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1.727124424770777e-08</v>
       </c>
     </row>
     <row r="40">
@@ -2612,52 +2612,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.9876162569904916</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.072665943405732e-10</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>6.380605611536441e-09</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>4.412385989635734e-08</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.06829291439324904</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.003005677114614155</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.00415548838</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.0107446335</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-1.631580678e-06</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.0009934566262558</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.2640674373360513</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-65.95396840612194</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>2.112437767353989e-08</v>
       </c>
     </row>
     <row r="41">
@@ -2667,52 +2667,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.233048358711088</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>2.234328e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.459971686311531e-10</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>8.733723357496585e-09</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.514889042191734e-08</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.1765799907677635</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.003670415011514663</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.005117794401999999</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.01257964485</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-1.29835923e-06</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.001163258176426881</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>-0.07509954438184065</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-74.61839493039891</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.749075889919142e-07</v>
       </c>
     </row>
     <row r="42">
@@ -2722,52 +2722,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>5.261260399520283</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>6.357257653568511e-09</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>2.742979628452376e-07</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2.215556288781293e-07</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>4.54580655143455e-08</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>87.00846811162099</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.0004827104017394246</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.0006412170716248251</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.002866367704283159</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>6.591869787075039e-05</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.0001208364883545415</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>353.0372272344219</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.008904577211572211</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>0.0006053162087796196</v>
       </c>
     </row>
     <row r="43">
@@ -2777,52 +2777,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2.909589963469696</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.056702926919773e-07</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-6.86582944843971e-11</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-1.507739640041036e-07</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>5.887529528440875e-07</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.2705795329914419</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.0009355875230425615</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.005932822245400794</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.002580054762547231</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-3.040413175656314e-07</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>5.817185384533375e-05</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.6000534269702098</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-96.10621774474079</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-4.34232168352007e-08</v>
       </c>
     </row>
     <row r="44">
@@ -2832,52 +2832,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1.751840332141502</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2.43528e-09</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1.015835022498375e-09</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>5.039699331146158e-08</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.798480839745981e-07</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.5319080347198788</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.004196093638765747</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.007552569</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.020236011</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>-9.448806779999999e-07</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.001477199450002417</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>0.1074166257380097</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>-62.2967516750379</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.648454160038449e-07</v>
       </c>
     </row>
     <row r="45">
@@ -2887,52 +2887,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1.491632256019059</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>9.07488e-08</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>-5.402625566445176e-10</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2.765597081046117e-08</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1.23460264905933e-07</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.249442670215394</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.004582214520581556</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.00773718884</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.016823514</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>-4.356201066000001e-06</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>0.001570492667819544</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>-0.4798493012099618</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>-69.4234271917299</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>5.032611328815111e-07</v>
       </c>
     </row>
     <row r="46">
@@ -2942,52 +2942,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1.147864451098024</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3.462928057507291e-19</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2.370372423211502e-10</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>8.039092672352499e-09</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3.060577423255045e-06</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.05162592236253003</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.003821403813074862</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.006817944882883375</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.01554928854113104</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-0.0001104945033126639</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.001452651699263572</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.8792190957070912</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>-53.00788240086266</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-3.199282621318108e-08</v>
       </c>
     </row>
     <row r="47">
@@ -2997,52 +2997,52 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1.962491503189167</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>3.186483378586314e-19</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>2.471695719159056e-10</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>-4.24318601247954e-09</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>4.122781563542894e-07</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.08798397017441782</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>0.003348470563820634</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>0.003992621699739231</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>0.01235988153888356</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>-7.040410015316042e-06</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>0.001111783970230495</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>0.4523769508307053</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>-76.43949146557588</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>-3.984364807781833e-08</v>
       </c>
     </row>
     <row r="48">
@@ -3052,52 +3052,52 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1.280387405835836</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>3.120777169424486e-13</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>3.167390853343538e-10</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>9.844622262542217e-08</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>2.692991299010314e-07</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.09350443204949398</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>0.0006080389437904753</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>0.002863125954095191</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>0.0005650611451291251</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>4.050113407863113e-06</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>3.994855153190401e-05</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>8818.531577997066</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>-1.114526726255</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>-1.444316034609401e-08</v>
       </c>
     </row>
     <row r="49">
@@ -3107,52 +3107,52 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>2.297234492673349</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1.562215328931389e-07</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>-1.127770747818055e-08</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1.962328573178802e-09</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>2.457039419890658e-08</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>23.73675024881097</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>0.0007766974558863604</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>5.093375853626901e-05</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>0.0002276840199468979</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.002079350821568445</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>7.362487917183245e-05</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>-4.364376648524568</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>2.563620361483753e-05</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>0.0001647640832230432</v>
       </c>
     </row>
     <row r="50">
@@ -3162,52 +3162,52 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>0.5489714210139175</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1.179232718796812e-10</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>5.219973200858017e-09</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>3.607705302209585e-08</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>0.009482186305161294</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>0.002156079045267056</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>0.003882103434</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>0.008140386449999999</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>-1.323172578e-06</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>0.0007547326899797999</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>0.2194296259929155</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>-52.64088074948067</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>2.513848469589429e-08</v>
       </c>
     </row>
     <row r="51">
@@ -3217,52 +3217,52 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1.352470147621407</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>5.711337278080209e-07</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>8.461759632082019e-09</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>5.306291954301868e-08</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.1405474756747744</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1.443534989223591</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>0.00486452125</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>0.01281095625</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>-1.778054502e-06</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>0.0011817155941564</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>0.2824403454190485</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>-76.00897296463215</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>2.260040882392951e-08</v>
       </c>
     </row>
   </sheetData>

--- a/impacts_results.xlsx
+++ b/impacts_results.xlsx
@@ -528,10 +528,10 @@
         <v>3.361764157e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>4.62924663284017e-10</v>
+        <v>4.631406588989662e-10</v>
       </c>
       <c r="E2" t="n">
-        <v>3.879078991542001e-08</v>
+        <v>3.879084538356165e-08</v>
       </c>
       <c r="F2" t="n">
         <v>2.83986369e-08</v>
@@ -540,7 +540,7 @@
         <v>0.347726377209823</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002959814286300981</v>
+        <v>0.00295927412151241</v>
       </c>
       <c r="I2" t="n">
         <v>0.00452297298</v>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.412297471682486</v>
+        <v>1.416310799401022</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>-5.942562700000001e-06</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.61835054360695e-08</v>
+        <v>6.617997827821783e-08</v>
       </c>
     </row>
     <row r="3">
@@ -583,10 +583,10 @@
         <v>6.539764149e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>1.464985357535881e-09</v>
+        <v>1.465940234788016e-09</v>
       </c>
       <c r="E3" t="n">
-        <v>8.976687958727152e-08</v>
+        <v>8.984420716643495e-08</v>
       </c>
       <c r="F3" t="n">
         <v>8.356571225142857e-08</v>
@@ -595,7 +595,7 @@
         <v>0.9448781094894597</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007478212858057491</v>
+        <v>0.007472377368457492</v>
       </c>
       <c r="I3" t="n">
         <v>0.01272602</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.254420380360909</v>
+        <v>4.106488902639286</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>-1.64027495e-05</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.70431338581025e-07</v>
+        <v>2.704249738623549e-07</v>
       </c>
     </row>
     <row r="4">
@@ -638,10 +638,10 @@
         <v>2.374584e-09</v>
       </c>
       <c r="D4" t="n">
-        <v>5.613779508564157e-10</v>
+        <v>5.616803656436484e-10</v>
       </c>
       <c r="E4" t="n">
-        <v>4.200803473965922e-08</v>
+        <v>4.205216650591443e-08</v>
       </c>
       <c r="F4" t="n">
         <v>1.258169285561905e-07</v>
@@ -650,7 +650,7 @@
         <v>0.4129700747695813</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003434301705940986</v>
+        <v>0.003431082215045748</v>
       </c>
       <c r="I4" t="n">
         <v>0.005173451000000001</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1680842277856437</v>
+        <v>0.6552147040873768</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>-52.91310701363911</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.302587576229222e-08</v>
+        <v>9.297049669727945e-08</v>
       </c>
     </row>
     <row r="5">
@@ -693,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.072665943405732e-10</v>
+        <v>1.074545345511499e-10</v>
       </c>
       <c r="E5" t="n">
-        <v>6.609605611536441e-09</v>
+        <v>6.609471978065446e-09</v>
       </c>
       <c r="F5" t="n">
         <v>4.412385989635734e-08</v>
@@ -705,7 +705,7 @@
         <v>0.06829291439324904</v>
       </c>
       <c r="H5" t="n">
-        <v>1.903005677114614</v>
+        <v>1.903004641299825</v>
       </c>
       <c r="I5" t="n">
         <v>0.00415548838</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2647164373360513</v>
+        <v>0.2692574864981468</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>-65.95396840612194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.112437767353989e-08</v>
+        <v>2.113803540746317e-08</v>
       </c>
     </row>
     <row r="6">
@@ -748,10 +748,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.477498194804077e-10</v>
+        <v>1.479442986452157e-10</v>
       </c>
       <c r="E6" t="n">
-        <v>7.499318439038081e-09</v>
+        <v>7.499206233173593e-09</v>
       </c>
       <c r="F6" t="n">
         <v>7.1059542621864e-08</v>
@@ -760,7 +760,7 @@
         <v>0.4353700119954084</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003434870401649219</v>
+        <v>0.003434116343710172</v>
       </c>
       <c r="I6" t="n">
         <v>0.004572926268</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.192838771209057</v>
+        <v>0.1959898702200118</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>-55.94231062465386</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.907535511098143e-08</v>
+        <v>1.90852554723932e-08</v>
       </c>
     </row>
     <row r="7">
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4.161450099721059e-09</v>
+        <v>4.161663755884983e-09</v>
       </c>
       <c r="E7" t="n">
-        <v>6.747414651992387e-08</v>
+        <v>6.74739509452886e-08</v>
       </c>
       <c r="F7" t="n">
         <v>5.109815446230447e-08</v>
@@ -815,7 +815,7 @@
         <v>0.03143043406246875</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00321347941707441</v>
+        <v>0.003212362786590601</v>
       </c>
       <c r="I7" t="n">
         <v>0.006949313515999999</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>337.8134646256306</v>
+        <v>337.8177276448685</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>-61.9420851917149</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.01564191117054e-08</v>
+        <v>4.017409057282048e-08</v>
       </c>
     </row>
     <row r="8">
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>4.164627258759079e-09</v>
+        <v>4.164855688244443e-09</v>
       </c>
       <c r="E8" t="n">
-        <v>6.753927624443796e-08</v>
+        <v>6.753908313612557e-08</v>
       </c>
       <c r="F8" t="n">
         <v>5.185308596297638e-08</v>
@@ -870,7 +870,7 @@
         <v>0.03143043472852395</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003250471302972884</v>
+        <v>0.003249352652679551</v>
       </c>
       <c r="I8" t="n">
         <v>0.00707813187</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>337.8166968263774</v>
+        <v>337.8209892363922</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>-62.23457765560983</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.241183012537777e-08</v>
+        <v>4.242981353023711e-08</v>
       </c>
     </row>
     <row r="9">
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.393555507995592e-10</v>
+        <v>1.395389409744916e-10</v>
       </c>
       <c r="E9" t="n">
-        <v>7.073133706689614e-09</v>
+        <v>7.073027872127901e-09</v>
       </c>
       <c r="F9" t="n">
         <v>6.70224574482004e-08</v>
@@ -925,7 +925,7 @@
         <v>0.4106324122507697</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003239719996013505</v>
+        <v>0.003239008779377315</v>
       </c>
       <c r="I9" t="n">
         <v>0.00431321487</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1818814849453881</v>
+        <v>0.1848535195962668</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>-52.76342833262949</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.799142958511898e-08</v>
+        <v>1.800076738949239e-08</v>
       </c>
     </row>
     <row r="10">
@@ -968,10 +968,10 @@
         <v>4.45752e-10</v>
       </c>
       <c r="D10" t="n">
-        <v>5.360288099156399e-10</v>
+        <v>5.36166956598101e-10</v>
       </c>
       <c r="E10" t="n">
-        <v>5.397979161572788e-08</v>
+        <v>5.397987925504162e-08</v>
       </c>
       <c r="F10" t="n">
         <v>1.236886581660991e-07</v>
@@ -980,7 +980,7 @@
         <v>0.3729913464888309</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001511240553647148</v>
+        <v>0.001511194102256481</v>
       </c>
       <c r="I10" t="n">
         <v>0.00294145754</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.06583815143543117</v>
+        <v>0.06675206760618273</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>-15.18529648188407</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.71261811701626e-05</v>
+        <v>2.712619078849812e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1023,10 +1023,10 @@
         <v>4.52688e-10</v>
       </c>
       <c r="D11" t="n">
-        <v>5.211044924728122e-10</v>
+        <v>5.211870874280982e-10</v>
       </c>
       <c r="E11" t="n">
-        <v>5.31674743849019e-08</v>
+        <v>5.316746695224562e-08</v>
       </c>
       <c r="F11" t="n">
         <v>1.148556410142895e-07</v>
@@ -1035,7 +1035,7 @@
         <v>0.3407650581958448</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001286952778987969</v>
+        <v>0.001286919838448255</v>
       </c>
       <c r="I11" t="n">
         <v>0.002298622482</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.08658238314627267</v>
+        <v>0.08642985556478319</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>-13.75686170148809</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.484058172353045e-08</v>
+        <v>2.484976986426155e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.881227840898935</v>
+        <v>4.881227823560343</v>
       </c>
       <c r="C12" t="n">
-        <v>1.845030773841409e-08</v>
+        <v>1.83827091770302e-08</v>
       </c>
       <c r="D12" t="n">
-        <v>1.521791375123035e-07</v>
+        <v>1.521666032062504e-07</v>
       </c>
       <c r="E12" t="n">
-        <v>9.763427993676388e-07</v>
+        <v>9.763177373895612e-07</v>
       </c>
       <c r="F12" t="n">
         <v>1.085858130774554e-07</v>
@@ -1090,7 +1090,7 @@
         <v>55.90060773112911</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008446140076333075</v>
+        <v>0.0008267446402322039</v>
       </c>
       <c r="I12" t="n">
         <v>0.001344646892439585</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>206.7785654994097</v>
+        <v>207.4425349683434</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0.005621861190721999</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0003812593381505653</v>
+        <v>0.0003812321976082118</v>
       </c>
     </row>
     <row r="13">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>7.251401956231688e-07</v>
+        <v>7.251403871880529e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>3.361392671066771e-07</v>
+        <v>3.361391488565003e-07</v>
       </c>
       <c r="F13" t="n">
         <v>6.253472574803659e-08</v>
@@ -1145,7 +1145,7 @@
         <v>0.3213906148945969</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00343138404011888</v>
+        <v>0.003430547362256023</v>
       </c>
       <c r="I13" t="n">
         <v>0.004426355434</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>41.36910913446562</v>
+        <v>41.37267028559153</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>-58.74959418435719</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.961541411814593e-08</v>
+        <v>1.962641693923033e-08</v>
       </c>
     </row>
     <row r="14">
@@ -1188,10 +1188,10 @@
         <v>1.944220467519e-08</v>
       </c>
       <c r="D14" t="n">
-        <v>9.727856772993583e-11</v>
+        <v>9.696532673692661e-11</v>
       </c>
       <c r="E14" t="n">
-        <v>8.215651794144448e-09</v>
+        <v>8.215042802679848e-09</v>
       </c>
       <c r="F14" t="n">
         <v>3.842931421190477e-08</v>
@@ -1200,7 +1200,7 @@
         <v>0.1765799907671901</v>
       </c>
       <c r="H14" t="n">
-        <v>0.003644008354958857</v>
+        <v>0.003642488686513142</v>
       </c>
       <c r="I14" t="n">
         <v>0.005117794401999999</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.583070921773698</v>
+        <v>2.585920943889396</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>-3.5512709e-06</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.855493385817267e-07</v>
+        <v>1.85550804453696e-07</v>
       </c>
     </row>
     <row r="15">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.558315387016555e-07</v>
+        <v>1.169149901897985e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>1.292811875301819e-07</v>
+        <v>9.903089833075554e-08</v>
       </c>
       <c r="F15" t="n">
         <v>5.728183682123493e-08</v>
@@ -1255,7 +1255,7 @@
         <v>0.06137315884855159</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1264360282155315</v>
+        <v>0.09576805607961535</v>
       </c>
       <c r="I15" t="n">
         <v>0.007439633177999999</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>528.5802251944071</v>
+        <v>396.6153081330518</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>-73.02565496447971</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.809342161308887e-08</v>
+        <v>3.811160735398401e-08</v>
       </c>
     </row>
     <row r="16">
@@ -1298,10 +1298,10 @@
         <v>5.516678629158947e-08</v>
       </c>
       <c r="D16" t="n">
-        <v>5.769930423777754e-09</v>
+        <v>5.769240436913545e-09</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.383464169659554e-09</v>
+        <v>-5.366339725561731e-09</v>
       </c>
       <c r="F16" t="n">
         <v>1.100184483416054e-06</v>
@@ -1310,7 +1310,7 @@
         <v>0.5670031270343233</v>
       </c>
       <c r="H16" t="n">
-        <v>0.005397708778181218</v>
+        <v>0.005395460435265458</v>
       </c>
       <c r="I16" t="n">
         <v>0.009743255440442938</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.087126389539285</v>
+        <v>1.365547089178571</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>-182.720020858655</v>
       </c>
       <c r="Q16" t="n">
-        <v>-2.444291228418381e-07</v>
+        <v>-2.472086036524427e-07</v>
       </c>
     </row>
     <row r="17">
@@ -1353,10 +1353,10 @@
         <v>4.084368276030096e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>3.511213445648625e-10</v>
+        <v>3.503764144214614e-10</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.184027020114134e-08</v>
+        <v>-1.182585853752522e-08</v>
       </c>
       <c r="F17" t="n">
         <v>3.600296027359974e-07</v>
@@ -1365,7 +1365,7 @@
         <v>0.5962500637215157</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009381326724772243</v>
+        <v>0.0009367542094427579</v>
       </c>
       <c r="I17" t="n">
         <v>0.006051460294684312</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.252684843269611</v>
+        <v>1.422466226948462</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>-1.53990384035652</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.021385392765796e-08</v>
+        <v>9.907950784680207e-09</v>
       </c>
     </row>
     <row r="18">
@@ -1405,13 +1405,13 @@
         <v>1.974221144014434</v>
       </c>
       <c r="C18" t="n">
-        <v>1.001335219521956e-18</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-5.428544099189757e-10</v>
+        <v>-5.431417563494449e-10</v>
       </c>
       <c r="E18" t="n">
-        <v>-8.345023406848761e-10</v>
+        <v>-8.259295696153028e-10</v>
       </c>
       <c r="F18" t="n">
         <v>4.112117089809441e-06</v>
@@ -1420,7 +1420,7 @@
         <v>0.176641453850698</v>
       </c>
       <c r="H18" t="n">
-        <v>0.004249192747472185</v>
+        <v>0.00424818370639213</v>
       </c>
       <c r="I18" t="n">
         <v>0.005338777520944886</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1107725653404811</v>
+        <v>0.02978768768625101</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>-73.83245184481972</v>
       </c>
       <c r="Q18" t="n">
-        <v>-1.496457706469566e-07</v>
+        <v>-1.510999876213048e-07</v>
       </c>
     </row>
     <row r="19">
@@ -1463,10 +1463,10 @@
         <v>1.559688e-10</v>
       </c>
       <c r="D19" t="n">
-        <v>1.324998487696107e-09</v>
+        <v>1.325185841528062e-09</v>
       </c>
       <c r="E19" t="n">
-        <v>1.492914014898276e-07</v>
+        <v>1.492914236611663e-07</v>
       </c>
       <c r="F19" t="n">
         <v>6.868383940537906e-08</v>
@@ -1475,7 +1475,7 @@
         <v>0.354550128754052</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001783895427190623</v>
+        <v>0.001783846296387385</v>
       </c>
       <c r="I19" t="n">
         <v>0.00314133484</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.06416708465888453</v>
+        <v>0.06454618680406761</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>-16.04484783531778</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.025621581738185e-08</v>
+        <v>3.026135114402226e-08</v>
       </c>
     </row>
     <row r="20">
@@ -1518,10 +1518,10 @@
         <v>1.99677488381e-08</v>
       </c>
       <c r="D20" t="n">
-        <v>4.928546341739532e-11</v>
+        <v>4.969042984829693e-11</v>
       </c>
       <c r="E20" t="n">
-        <v>8.135852843166033e-09</v>
+        <v>8.135740582693493e-09</v>
       </c>
       <c r="F20" t="n">
         <v>3.829891745476191e-08</v>
@@ -1530,7 +1530,7 @@
         <v>0.1842421992554065</v>
       </c>
       <c r="H20" t="n">
-        <v>0.003433136649936016</v>
+        <v>0.00343207371302935</v>
       </c>
       <c r="I20" t="n">
         <v>0.00511708223</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>2.116490198980451</v>
+        <v>2.121770648551964</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>-3.1600724e-06</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.640513906076943e-08</v>
+        <v>5.640747328849321e-08</v>
       </c>
     </row>
     <row r="21">
@@ -1573,10 +1573,10 @@
         <v>8.033668168104741e-13</v>
       </c>
       <c r="D21" t="n">
-        <v>4.785496957004688e-09</v>
+        <v>4.784663528710775e-09</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.730254255495798e-08</v>
+        <v>-1.728722012904576e-08</v>
       </c>
       <c r="F21" t="n">
         <v>6.757453355704793e-07</v>
@@ -1585,7 +1585,7 @@
         <v>0.145729189669992</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00347067734315336</v>
+        <v>0.003468812583307292</v>
       </c>
       <c r="I21" t="n">
         <v>0.00594809030611677</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.157463602535895</v>
+        <v>1.361588267843204</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>-144.5274602440677</v>
       </c>
       <c r="Q21" t="n">
-        <v>-1.00005656039218e-07</v>
+        <v>-1.010316145364357e-07</v>
       </c>
     </row>
     <row r="22">
@@ -1628,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.180328734085015e-10</v>
+        <v>1.181881931829198e-10</v>
       </c>
       <c r="E22" t="n">
-        <v>2.189089161924188e-08</v>
+        <v>2.189080196497897e-08</v>
       </c>
       <c r="F22" t="n">
         <v>5.676660721573867e-08</v>
@@ -1640,7 +1640,7 @@
         <v>0.3477999866862206</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6327439699569515</v>
+        <v>0.6327433675612981</v>
       </c>
       <c r="I22" t="n">
         <v>0.00365311928</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.4770531138578899</v>
+        <v>0.4795702693958103</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>-44.69005075934997</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.523888573220652e-08</v>
+        <v>1.524679475552109e-08</v>
       </c>
     </row>
     <row r="23">
@@ -1683,10 +1683,10 @@
         <v>1.051392e-07</v>
       </c>
       <c r="D23" t="n">
-        <v>2.427599742454875e-10</v>
+        <v>2.432997374059329e-10</v>
       </c>
       <c r="E23" t="n">
-        <v>1.014224182461961e-08</v>
+        <v>1.084634325666854e-08</v>
       </c>
       <c r="F23" t="n">
         <v>4.920230660443734e-08</v>
@@ -1695,7 +1695,7 @@
         <v>0.1154114644092382</v>
       </c>
       <c r="H23" t="n">
-        <v>0.003072710826783277</v>
+        <v>0.003029455052173754</v>
       </c>
       <c r="I23" t="n">
         <v>0.00588226268</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.4727072425645457</v>
+        <v>7.223444833112695</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>-50.49879166354542</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.910974928991242e-08</v>
+        <v>3.909983945973339e-08</v>
       </c>
     </row>
     <row r="24">
@@ -1738,10 +1738,10 @@
         <v>7.75152e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>9.336085681459333e-11</v>
+        <v>9.376582324550672e-11</v>
       </c>
       <c r="E24" t="n">
-        <v>8.77293495837121e-09</v>
+        <v>8.772844322875735e-09</v>
       </c>
       <c r="F24" t="n">
         <v>5.571768723945562e-08</v>
@@ -1750,7 +1750,7 @@
         <v>0.1842421992559485</v>
       </c>
       <c r="H24" t="n">
-        <v>0.003455541983868297</v>
+        <v>0.00345447904696163</v>
       </c>
       <c r="I24" t="n">
         <v>0.00511708223</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-1.294073042220566</v>
+        <v>-1.289133404198755</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>-72.76246147881527</v>
       </c>
       <c r="Q24" t="n">
-        <v>-3.466857593982944e-08</v>
+        <v>-3.464738924511844e-08</v>
       </c>
     </row>
     <row r="25">
@@ -1793,10 +1793,10 @@
         <v>2.30577719352e-08</v>
       </c>
       <c r="D25" t="n">
-        <v>1.290151988228195e-08</v>
+        <v>2.223588529107362e-08</v>
       </c>
       <c r="E25" t="n">
-        <v>1.074996005760711e-08</v>
+        <v>1.080525353582258e-08</v>
       </c>
       <c r="F25" t="n">
         <v>5.774158095575658e-08</v>
@@ -1805,7 +1805,7 @@
         <v>332.957793318523</v>
       </c>
       <c r="H25" t="n">
-        <v>0.005312199613022089</v>
+        <v>0.005307743717974469</v>
       </c>
       <c r="I25" t="n">
         <v>0.00512853555</v>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>2.429594316186229</v>
+        <v>3.279923600257154</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>-78.045336150428</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.819924259502616e-08</v>
+        <v>4.82209504797832e-08</v>
       </c>
     </row>
     <row r="26">
@@ -1848,10 +1848,10 @@
         <v>2.06164172715e-08</v>
       </c>
       <c r="D26" t="n">
-        <v>5.149485349383646e-11</v>
+        <v>5.154349578049157e-11</v>
       </c>
       <c r="E26" t="n">
-        <v>8.402707818285536e-09</v>
+        <v>8.402402074307453e-09</v>
       </c>
       <c r="F26" t="n">
         <v>3.857928756857143e-08</v>
@@ -1860,7 +1860,7 @@
         <v>0.2141552778766561</v>
       </c>
       <c r="H26" t="n">
-        <v>0.003941565078661165</v>
+        <v>0.003940318496284022</v>
       </c>
       <c r="I26" t="n">
         <v>0.00505269134</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2.613904486884331</v>
+        <v>2.618281094596937</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>-3.5534186e-06</v>
       </c>
       <c r="Q26" t="n">
-        <v>7.474557510501536e-08</v>
+        <v>7.474725429754733e-08</v>
       </c>
     </row>
     <row r="27">
@@ -1903,10 +1903,10 @@
         <v>3.32616e-10</v>
       </c>
       <c r="D27" t="n">
-        <v>5.360722812780947e-10</v>
+        <v>5.36181312413404e-10</v>
       </c>
       <c r="E27" t="n">
-        <v>5.420745635333272e-08</v>
+        <v>5.420750016128271e-08</v>
       </c>
       <c r="F27" t="n">
         <v>1.205193714869791e-07</v>
@@ -1915,7 +1915,7 @@
         <v>0.3623799122047837</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001398198137292736</v>
+        <v>0.001398158222359593</v>
       </c>
       <c r="I27" t="n">
         <v>0.002508226292</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.07269568522980012</v>
+        <v>0.07312576077978687</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>-14.52573988472294</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.577288359865247e-08</v>
+        <v>2.578198614073942e-08</v>
       </c>
     </row>
     <row r="28">
@@ -1958,10 +1958,10 @@
         <v>3.588123290976906e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.95325145434632e-10</v>
+        <v>-2.95560239719065e-10</v>
       </c>
       <c r="E28" t="n">
-        <v>-9.033546172328321e-08</v>
+        <v>-9.032323318398823e-08</v>
       </c>
       <c r="F28" t="n">
         <v>3.672325074040495e-07</v>
@@ -1970,7 +1970,7 @@
         <v>0.5461090681879356</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0007002489477391685</v>
+        <v>0.0006992476746474304</v>
       </c>
       <c r="I28" t="n">
         <v>0.004197069706363158</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4297032734986833</v>
+        <v>0.5689557299348449</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>-75.59399787939725</v>
       </c>
       <c r="Q28" t="n">
-        <v>-5.374685364600535e-08</v>
+        <v>-5.388129228818623e-08</v>
       </c>
     </row>
     <row r="29">
@@ -2013,10 +2013,10 @@
         <v>1.652856e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>1.044190567035959e-10</v>
+        <v>1.044676989902608e-10</v>
       </c>
       <c r="E29" t="n">
-        <v>8.947603625937933e-09</v>
+        <v>8.947318660268505e-09</v>
       </c>
       <c r="F29" t="n">
         <v>6.169599339136001e-08</v>
@@ -2025,7 +2025,7 @@
         <v>0.2141552778772773</v>
       </c>
       <c r="H29" t="n">
-        <v>0.003964710119071976</v>
+        <v>0.003963463536694833</v>
       </c>
       <c r="I29" t="n">
         <v>0.00505269134</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01763319916526959</v>
+        <v>0.02168233889714228</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>-75.67491116610253</v>
       </c>
       <c r="Q29" t="n">
-        <v>6.348366187288745e-08</v>
+        <v>6.350345541424806e-08</v>
       </c>
     </row>
     <row r="30">
@@ -2068,10 +2068,10 @@
         <v>1.846992e-09</v>
       </c>
       <c r="D30" t="n">
-        <v>1.31614417449528e-06</v>
+        <v>1.316144390490895e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>8.944932387416331e-07</v>
+        <v>8.944932409781813e-07</v>
       </c>
       <c r="F30" t="n">
         <v>1.134078435896697e-07</v>
@@ -2080,7 +2080,7 @@
         <v>0.3477263772110388</v>
       </c>
       <c r="H30" t="n">
-        <v>0.002979471087579782</v>
+        <v>0.002978930922791211</v>
       </c>
       <c r="I30" t="n">
         <v>0.00452297298</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>45.33735664209181</v>
+        <v>45.34220890442869</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>-47.49214678510643</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.008837100704318e-08</v>
+        <v>6.003843700878231e-08</v>
       </c>
     </row>
     <row r="31">
@@ -2123,10 +2123,10 @@
         <v>1.244235419352e-07</v>
       </c>
       <c r="D31" t="n">
-        <v>1.284284645917123e-08</v>
+        <v>2.217721186796289e-08</v>
       </c>
       <c r="E31" t="n">
-        <v>1.010998921866051e-08</v>
+        <v>1.016525968341095e-08</v>
       </c>
       <c r="F31" t="n">
         <v>3.946489189857143e-08</v>
@@ -2135,7 +2135,7 @@
         <v>0.3398487595658115</v>
       </c>
       <c r="H31" t="n">
-        <v>0.005289482255137571</v>
+        <v>0.005285026360089952</v>
       </c>
       <c r="I31" t="n">
         <v>0.00512853555</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>4.830450240092151</v>
+        <v>5.681142218405789</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>-5.4178407e-06</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.016920293466959e-08</v>
+        <v>6.01708478807054e-08</v>
       </c>
     </row>
     <row r="32">
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>8.96711475203628e-11</v>
+        <v>9.009595534072623e-11</v>
       </c>
       <c r="E32" t="n">
-        <v>5.425082415309975e-09</v>
+        <v>5.425163839534401e-09</v>
       </c>
       <c r="F32" t="n">
         <v>3.733562666347524e-08</v>
@@ -2190,7 +2190,7 @@
         <v>0.04055889002061384</v>
       </c>
       <c r="H32" t="n">
-        <v>0.002422589435467352</v>
+        <v>0.002421857680065447</v>
       </c>
       <c r="I32" t="n">
         <v>0.003551864364</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2207449653283802</v>
+        <v>0.225717127174758</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>-59.25448763319888</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.901344774819676e-08</v>
+        <v>1.90263732693272e-08</v>
       </c>
     </row>
     <row r="33">
@@ -2230,13 +2230,13 @@
         <v>2.238390251351573</v>
       </c>
       <c r="C33" t="n">
-        <v>2.897012212693468e-19</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-6.293096181685076e-10</v>
+        <v>-6.296992828388088e-10</v>
       </c>
       <c r="E33" t="n">
-        <v>-2.053339145164177e-08</v>
+        <v>-2.052896955123996e-08</v>
       </c>
       <c r="F33" t="n">
         <v>4.907966533189871e-07</v>
@@ -2245,7 +2245,7 @@
         <v>0.0579617776695802</v>
       </c>
       <c r="H33" t="n">
-        <v>0.003631520653280599</v>
+        <v>0.003630889619064187</v>
       </c>
       <c r="I33" t="n">
         <v>0.004055882360781992</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.07403157526454737</v>
+        <v>-0.00746148529048615</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>-72.6743062207576</v>
       </c>
       <c r="Q33" t="n">
-        <v>-7.097114781052391e-08</v>
+        <v>-7.15021450920827e-08</v>
       </c>
     </row>
     <row r="34">
@@ -2288,10 +2288,10 @@
         <v>4.049084146647342e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>3.273245273788336e-10</v>
+        <v>3.266043113830711e-10</v>
       </c>
       <c r="E34" t="n">
-        <v>-3.194017423039295e-08</v>
+        <v>-3.193025416849395e-08</v>
       </c>
       <c r="F34" t="n">
         <v>6.816048021819701e-07</v>
@@ -2300,7 +2300,7 @@
         <v>0.7698504214047682</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0008901235150300335</v>
+        <v>0.0008889532424542435</v>
       </c>
       <c r="I34" t="n">
         <v>0.005791795003482971</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.176928823797014</v>
+        <v>1.315648649608092</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>-2.16207231337359</v>
       </c>
       <c r="Q34" t="n">
-        <v>-9.855533610262496e-08</v>
+        <v>-9.944487061529105e-08</v>
       </c>
     </row>
     <row r="35">
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.521175929492318e-09</v>
+        <v>1.521381807297682e-09</v>
       </c>
       <c r="E35" t="n">
-        <v>9.953170319979492e-09</v>
+        <v>9.952969291897589e-09</v>
       </c>
       <c r="F35" t="n">
         <v>4.747444553036061e-08</v>
@@ -2355,7 +2355,7 @@
         <v>0.02789723055544714</v>
       </c>
       <c r="H35" t="n">
-        <v>0.3628599331662135</v>
+        <v>0.3628588519241677</v>
       </c>
       <c r="I35" t="n">
         <v>0.005768188919999999</v>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>649.0240297507024</v>
+        <v>649.0280301654047</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>-60.12900048343669</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.441168398121607e-08</v>
+        <v>4.442894501836185e-08</v>
       </c>
     </row>
     <row r="36">
@@ -2398,10 +2398,10 @@
         <v>2.201493155320678e-09</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.326643447885466e-10</v>
+        <v>-2.328443430951606e-10</v>
       </c>
       <c r="E36" t="n">
-        <v>-9.524453587125422e-09</v>
+        <v>-9.51137815836251e-09</v>
       </c>
       <c r="F36" t="n">
         <v>4.67580117202848e-07</v>
@@ -2410,7 +2410,7 @@
         <v>1.229857186334936</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0007016783439520378</v>
+        <v>0.000700623720445946</v>
       </c>
       <c r="I36" t="n">
         <v>0.004911075589830173</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0.7828455900347041</v>
+        <v>0.9343120763756926</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>-1791187.202141583</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.113547201202409e-08</v>
+        <v>2.090333509043785e-08</v>
       </c>
     </row>
     <row r="37">
@@ -2453,10 +2453,10 @@
         <v>3.664305627742366e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.543318415663898e-10</v>
+        <v>-3.545573651478869e-10</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.209952779579727e-07</v>
+        <v>-1.209826918618404e-07</v>
       </c>
       <c r="F37" t="n">
         <v>3.678679063366962e-07</v>
@@ -2465,7 +2465,7 @@
         <v>0.5600978378954679</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0007493502562936764</v>
+        <v>0.000748313743119249</v>
       </c>
       <c r="I37" t="n">
         <v>0.004410772510932425</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.3717513150944149</v>
+        <v>0.5161755067580435</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>-79.40223125472819</v>
       </c>
       <c r="Q37" t="n">
-        <v>-7.640128875299639e-08</v>
+        <v>-7.657488238122316e-08</v>
       </c>
     </row>
     <row r="38">
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>4.524159213338632e-12</v>
+        <v>4.562323511601739e-12</v>
       </c>
       <c r="E38" t="n">
-        <v>2.57193565003692e-10</v>
+        <v>2.572712990909914e-10</v>
       </c>
       <c r="F38" t="n">
         <v>2.626379100960572e-09</v>
@@ -2520,7 +2520,7 @@
         <v>0.02019494044432128</v>
       </c>
       <c r="H38" t="n">
-        <v>9.474204315381334e-05</v>
+        <v>9.473121604524192e-05</v>
       </c>
       <c r="I38" t="n">
         <v>0.0001552031206</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.01891456514268408</v>
+        <v>-0.01802750217752046</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>-1.066055513518855</v>
       </c>
       <c r="Q38" t="n">
-        <v>7.400310505985816e-10</v>
+        <v>7.398299065678912e-10</v>
       </c>
     </row>
     <row r="39">
@@ -2563,10 +2563,10 @@
         <v>3.850744183389317e-13</v>
       </c>
       <c r="D39" t="n">
-        <v>3.871585245392246e-10</v>
+        <v>3.863666779702064e-10</v>
       </c>
       <c r="E39" t="n">
-        <v>-9.432222240151715e-09</v>
+        <v>-9.422631985655674e-09</v>
       </c>
       <c r="F39" t="n">
         <v>4.63384781003231e-07</v>
@@ -2575,7 +2575,7 @@
         <v>0.5934893071031379</v>
       </c>
       <c r="H39" t="n">
-        <v>0.001136072707356104</v>
+        <v>0.001134962252518419</v>
       </c>
       <c r="I39" t="n">
         <v>0.005319377504764703</v>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1.621916439999162</v>
+        <v>1.735378300472069</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>-1.52710590364824</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.727124424770777e-08</v>
+        <v>1.709104064780901e-08</v>
       </c>
     </row>
     <row r="40">
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.072665943405732e-10</v>
+        <v>1.074545345511499e-10</v>
       </c>
       <c r="E40" t="n">
-        <v>6.380605611536441e-09</v>
+        <v>6.380471978065446e-09</v>
       </c>
       <c r="F40" t="n">
         <v>4.412385989635734e-08</v>
@@ -2630,7 +2630,7 @@
         <v>0.06829291439324904</v>
       </c>
       <c r="H40" t="n">
-        <v>0.003005677114614155</v>
+        <v>0.003004641299825583</v>
       </c>
       <c r="I40" t="n">
         <v>0.00415548838</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.2640674373360513</v>
+        <v>0.2686084864981468</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>-65.95396840612194</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.112437767353989e-08</v>
+        <v>2.113803540746317e-08</v>
       </c>
     </row>
     <row r="41">
@@ -2673,10 +2673,10 @@
         <v>2.234328e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>1.459971686311531e-10</v>
+        <v>1.456839276381551e-10</v>
       </c>
       <c r="E41" t="n">
-        <v>8.733723357496585e-09</v>
+        <v>8.733139184415129e-09</v>
       </c>
       <c r="F41" t="n">
         <v>5.514889042191734e-08</v>
@@ -2685,7 +2685,7 @@
         <v>0.1765799907677635</v>
       </c>
       <c r="H41" t="n">
-        <v>0.003670415011514663</v>
+        <v>0.003668895343068949</v>
       </c>
       <c r="I41" t="n">
         <v>0.005117794401999999</v>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.07509954438184065</v>
+        <v>-0.0726406621779233</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         <v>-74.61839493039891</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.749075889919142e-07</v>
+        <v>1.74930691314528e-07</v>
       </c>
     </row>
     <row r="42">
@@ -2722,16 +2722,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5.261260399520283</v>
+        <v>5.261260247908658</v>
       </c>
       <c r="C42" t="n">
-        <v>6.357257653568511e-09</v>
+        <v>5.766164232493759e-09</v>
       </c>
       <c r="D42" t="n">
-        <v>2.742979628452376e-07</v>
+        <v>2.743059791536556e-07</v>
       </c>
       <c r="E42" t="n">
-        <v>2.215556288781293e-07</v>
+        <v>2.215417952719909e-07</v>
       </c>
       <c r="F42" t="n">
         <v>4.54580655143455e-08</v>
@@ -2740,7 +2740,7 @@
         <v>87.00846811162099</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0004827104017394246</v>
+        <v>0.0004816563087070595</v>
       </c>
       <c r="I42" t="n">
         <v>0.0006412170716248251</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>353.0372272344219</v>
+        <v>353.4870270111155</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0.008904577211572211</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.0006053162087796196</v>
+        <v>0.0006052966609792118</v>
       </c>
     </row>
     <row r="43">
@@ -2783,10 +2783,10 @@
         <v>1.056702926919773e-07</v>
       </c>
       <c r="D43" t="n">
-        <v>-6.86582944843971e-11</v>
+        <v>-6.926111086217437e-11</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.507739640041036e-07</v>
+        <v>-1.507531359906068e-07</v>
       </c>
       <c r="F43" t="n">
         <v>5.887529528440875e-07</v>
@@ -2795,7 +2795,7 @@
         <v>0.2705795329914419</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0009355875230425615</v>
+        <v>0.000934037526290343</v>
       </c>
       <c r="I43" t="n">
         <v>0.005932822245400794</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.6000534269702098</v>
+        <v>0.8346297117240513</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>-96.10621774474079</v>
       </c>
       <c r="Q43" t="n">
-        <v>-4.34232168352007e-08</v>
+        <v>-4.359715459504763e-08</v>
       </c>
     </row>
     <row r="44">
@@ -2838,10 +2838,10 @@
         <v>2.43528e-09</v>
       </c>
       <c r="D44" t="n">
-        <v>1.015835022498375e-09</v>
+        <v>1.016487243107137e-09</v>
       </c>
       <c r="E44" t="n">
-        <v>5.039699331146158e-08</v>
+        <v>5.043010616950284e-08</v>
       </c>
       <c r="F44" t="n">
         <v>1.798480839745981e-07</v>
@@ -2850,7 +2850,7 @@
         <v>0.5319080347198788</v>
       </c>
       <c r="H44" t="n">
-        <v>0.004196093638765747</v>
+        <v>0.004193477640060986</v>
       </c>
       <c r="I44" t="n">
         <v>0.007552569</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0.1074166257380097</v>
+        <v>0.4735819578898672</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>-62.2967516750379</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.648454160038449e-07</v>
+        <v>1.648225482371441e-07</v>
       </c>
     </row>
     <row r="45">
@@ -2893,10 +2893,10 @@
         <v>9.07488e-08</v>
       </c>
       <c r="D45" t="n">
-        <v>-5.402625566445176e-10</v>
+        <v>-5.395199748020829e-10</v>
       </c>
       <c r="E45" t="n">
-        <v>2.765597081046117e-08</v>
+        <v>2.826869958988622e-08</v>
       </c>
       <c r="F45" t="n">
         <v>1.23460264905933e-07</v>
@@ -2905,7 +2905,7 @@
         <v>0.249442670215394</v>
       </c>
       <c r="H45" t="n">
-        <v>0.004582214520581556</v>
+        <v>0.00454428236871489</v>
       </c>
       <c r="I45" t="n">
         <v>0.00773718884</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.4798493012099618</v>
+        <v>6.214542290576799</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>-69.4234271917299</v>
       </c>
       <c r="Q45" t="n">
-        <v>5.032611328815111e-07</v>
+        <v>5.034097624856542e-07</v>
       </c>
     </row>
     <row r="46">
@@ -2945,13 +2945,13 @@
         <v>1.147864451098024</v>
       </c>
       <c r="C46" t="n">
-        <v>3.462928057507291e-19</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.370372423211502e-10</v>
+        <v>2.366560032749448e-10</v>
       </c>
       <c r="E46" t="n">
-        <v>8.039092672352499e-09</v>
+        <v>8.053646420304881e-09</v>
       </c>
       <c r="F46" t="n">
         <v>3.060577423255045e-06</v>
@@ -2960,7 +2960,7 @@
         <v>0.05162592236253003</v>
       </c>
       <c r="H46" t="n">
-        <v>0.003821403813074862</v>
+        <v>0.003820217047443794</v>
       </c>
       <c r="I46" t="n">
         <v>0.006817944882883375</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.8792190957070912</v>
+        <v>1.051865200262054</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>-53.00788240086266</v>
       </c>
       <c r="Q46" t="n">
-        <v>-3.199282621318108e-08</v>
+        <v>-3.238290846846202e-08</v>
       </c>
     </row>
     <row r="47">
@@ -3000,13 +3000,13 @@
         <v>1.962491503189167</v>
       </c>
       <c r="C47" t="n">
-        <v>3.186483378586314e-19</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>2.471695719159056e-10</v>
+        <v>2.468647871442819e-10</v>
       </c>
       <c r="E47" t="n">
-        <v>-4.24318601247954e-09</v>
+        <v>-4.236752448845795e-09</v>
       </c>
       <c r="F47" t="n">
         <v>4.122781563542894e-07</v>
@@ -3015,7 +3015,7 @@
         <v>0.08798397017441782</v>
       </c>
       <c r="H47" t="n">
-        <v>0.003348470563820634</v>
+        <v>0.003347665800989313</v>
       </c>
       <c r="I47" t="n">
         <v>0.003992621699739231</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0.4523769508307053</v>
+        <v>0.5368159552196174</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3042,7 +3042,7 @@
         <v>-76.43949146557588</v>
       </c>
       <c r="Q47" t="n">
-        <v>-3.984364807781833e-08</v>
+        <v>-4.022793816606726e-08</v>
       </c>
     </row>
     <row r="48">
@@ -3058,10 +3058,10 @@
         <v>3.120777169424486e-13</v>
       </c>
       <c r="D48" t="n">
-        <v>3.167390853343538e-10</v>
+        <v>3.161578007088774e-10</v>
       </c>
       <c r="E48" t="n">
-        <v>9.844622262542217e-08</v>
+        <v>9.845280243725651e-08</v>
       </c>
       <c r="F48" t="n">
         <v>2.692991299010314e-07</v>
@@ -3070,7 +3070,7 @@
         <v>0.09350443204949398</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0006080389437904753</v>
+        <v>0.0006072196843374678</v>
       </c>
       <c r="I48" t="n">
         <v>0.002863125954095191</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>8818.531577997066</v>
+        <v>8818.613790064039</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>-1.114526726255</v>
       </c>
       <c r="Q48" t="n">
-        <v>-1.444316034609401e-08</v>
+        <v>-1.469976557325548e-08</v>
       </c>
     </row>
     <row r="49">
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.297234492673349</v>
+        <v>2.297234485962544</v>
       </c>
       <c r="C49" t="n">
-        <v>1.562215328931389e-07</v>
+        <v>1.561953692454076e-07</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.127770747818055e-08</v>
+        <v>-1.126978917452854e-08</v>
       </c>
       <c r="E49" t="n">
-        <v>1.962328573178802e-09</v>
+        <v>3.250677826853244e-09</v>
       </c>
       <c r="F49" t="n">
         <v>2.457039419890658e-08</v>
@@ -3125,7 +3125,7 @@
         <v>23.73675024881097</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0007766974558863604</v>
+        <v>0.000698397453271656</v>
       </c>
       <c r="I49" t="n">
         <v>5.093375853626901e-05</v>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>-4.364376648524568</v>
+        <v>10.04553096876509</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>2.563620361483753e-05</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.0001647640832230432</v>
+        <v>0.0001647530412742081</v>
       </c>
     </row>
     <row r="50">
@@ -3168,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1.179232718796812e-10</v>
+        <v>1.180547984529731e-10</v>
       </c>
       <c r="E50" t="n">
-        <v>5.219973200858017e-09</v>
+        <v>5.219806408995194e-09</v>
       </c>
       <c r="F50" t="n">
         <v>3.607705302209585e-08</v>
@@ -3180,7 +3180,7 @@
         <v>0.009482186305161294</v>
       </c>
       <c r="H50" t="n">
-        <v>0.002156079045267056</v>
+        <v>0.002155123999408008</v>
       </c>
       <c r="I50" t="n">
         <v>0.003882103434</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0.2194296259929155</v>
+        <v>0.2231095878519289</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>-52.64088074948067</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.513848469589429e-08</v>
+        <v>2.51526027981705e-08</v>
       </c>
     </row>
     <row r="51">
@@ -3223,10 +3223,10 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>5.711337278080209e-07</v>
+        <v>5.711339146808523e-07</v>
       </c>
       <c r="E51" t="n">
-        <v>8.461759632082019e-09</v>
+        <v>8.461606997998144e-09</v>
       </c>
       <c r="F51" t="n">
         <v>5.306291954301868e-08</v>
@@ -3235,7 +3235,7 @@
         <v>0.1405474756747744</v>
       </c>
       <c r="H51" t="n">
-        <v>1.443534989223591</v>
+        <v>1.443533900142125</v>
       </c>
       <c r="I51" t="n">
         <v>0.00486452125</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0.2824403454190485</v>
+        <v>0.2870963471997821</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>-76.00897296463215</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.260040882392951e-08</v>
+        <v>2.261444764209831e-08</v>
       </c>
     </row>
   </sheetData>

--- a/impacts_results.xlsx
+++ b/impacts_results.xlsx
@@ -2621,7 +2621,7 @@
         <v>1.074545345511499e-10</v>
       </c>
       <c r="E40" t="n">
-        <v>6.380471978065446e-09</v>
+        <v>7.037471978065445e-09</v>
       </c>
       <c r="F40" t="n">
         <v>4.412385989635734e-08</v>
@@ -2630,7 +2630,7 @@
         <v>0.06829291439324904</v>
       </c>
       <c r="H40" t="n">
-        <v>0.003004641299825583</v>
+        <v>1.693004641299825</v>
       </c>
       <c r="I40" t="n">
         <v>0.00415548838</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.2686084864981468</v>
+        <v>0.2695554864981468</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
